--- a/01_Raw_data/CampbellSci/GasDome/LittleFanning/LittleFanning_11142022.xlsx
+++ b/01_Raw_data/CampbellSci/GasDome/LittleFanning/LittleFanning_11142022.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SpringsProject_Sam&amp;Paul\CampbellSci\GasDome\LittleFanning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SpringMetabolism_FlowReversals\01_Raw_data\CampbellSci\GasDome\LittleFanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A0DCD8-DD4E-4635-86CE-92F5C4605B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5816D642-97E1-48DD-A724-2995DDC0945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{6D9DF307-2018-4C2D-ACD1-7542BDB6B44E}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{6D9DF307-2018-4C2D-ACD1-7542BDB6B44E}"/>
   </bookViews>
   <sheets>
-    <sheet name="x" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -106,756 +105,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>x!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CO2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>x!$A$2:$A$76</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="75"/>
-                <c:pt idx="0">
-                  <c:v>44879.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44879.400347222225</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44879.400694444441</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44879.401041666664</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44879.401388888888</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44879.401736111111</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44879.402083333334</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44879.402430555558</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44879.402777777781</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44879.403124999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44879.40347222222</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44879.403819444444</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44879.404166666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44879.404513888891</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44879.404861111114</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44879.40520833333</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44879.405555555553</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44879.405902777777</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44879.40625</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44879.406597222223</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44879.406944444447</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44879.40729166667</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44879.407638888886</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44879.407986111109</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44879.408333333333</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44879.408680555556</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44879.40902777778</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44879.409375000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44879.409722222219</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44879.410069444442</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44879.410416666666</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44879.410763888889</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44879.411111111112</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44879.411458333336</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44879.411805555559</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44879.412152777775</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44879.412499999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44879.412847222222</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44879.413194444445</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44879.413541666669</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44879.413888888892</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44879.414236111108</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44879.414583333331</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44879.414930555555</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44879.415277777778</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44879.415625000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44879.415972222225</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44879.416319444441</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44879.416666666664</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44879.417013888888</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44879.417361111111</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44879.417708333334</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44879.418055555558</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44879.418402777781</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44879.418749999997</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44879.41909722222</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44879.419444444444</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44879.419791666667</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44879.420138888891</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44879.420486111114</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44879.42083333333</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44879.421180555553</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44879.421527777777</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44879.421875</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44879.422222222223</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44879.422569444447</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44879.42291666667</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44879.423263888886</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44879.423611111109</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44879.423958333333</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44879.424305555556</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44879.42465277778</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44879.425000000003</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44879.425347222219</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44879.425694444442</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>x!$D$2:$D$76</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
-                <c:pt idx="0">
-                  <c:v>2842</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3025</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3063</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3082</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3074</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3057</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2961</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2937</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2886</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2850</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2819</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2781</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2745</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2720</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2671</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2631</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2604</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2594</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2541</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2455</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2413</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2387</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2351</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2322</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2298</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2288</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2270</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2260</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2237</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.4980000000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.0449999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.4980000000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2114</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2102</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2080</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2056</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2273</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2889</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3331</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3653</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3789</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3859</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3895</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3916</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3924</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3837</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3776</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3713</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3656</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3591</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3554</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3488</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3441</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3396</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3365</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3327</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3273</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3225</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3169</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3129</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3079</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3028</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2968</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2923</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2892</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2874</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2837</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2795</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2725</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2669</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2597</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2545</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2826-4367-802E-74CAC53CE036}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="642086096"/>
-        <c:axId val="642082816"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="642086096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="642082816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="642082816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="642086096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1317,7 +566,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1871,46 +1120,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2943,564 +2152,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2471496-7D34-B9FA-02A1-8EBB809F4097}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3541,7 +2193,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3583,9 +2235,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3623,7 +2275,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3729,7 +2381,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3871,1326 +2523,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59036E5-9330-4C98-9E82-0570702403F8}">
-  <dimension ref="A1:E76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A2" s="1">
-        <v>44879.4</v>
-      </c>
-      <c r="B2">
-        <v>545</v>
-      </c>
-      <c r="C2">
-        <v>12.34</v>
-      </c>
-      <c r="D2">
-        <v>2842</v>
-      </c>
-      <c r="E2">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" s="1">
-        <v>44879.400347222225</v>
-      </c>
-      <c r="B3">
-        <v>546</v>
-      </c>
-      <c r="C3">
-        <v>12.35</v>
-      </c>
-      <c r="D3">
-        <v>2980</v>
-      </c>
-      <c r="E3">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A4" s="1">
-        <v>44879.400694444441</v>
-      </c>
-      <c r="B4">
-        <v>547</v>
-      </c>
-      <c r="C4">
-        <v>12.34</v>
-      </c>
-      <c r="D4">
-        <v>3025</v>
-      </c>
-      <c r="E4">
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A5" s="1">
-        <v>44879.401041666664</v>
-      </c>
-      <c r="B5">
-        <v>548</v>
-      </c>
-      <c r="C5">
-        <v>12.29</v>
-      </c>
-      <c r="D5">
-        <v>3063</v>
-      </c>
-      <c r="E5">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A6" s="1">
-        <v>44879.401388888888</v>
-      </c>
-      <c r="B6">
-        <v>549</v>
-      </c>
-      <c r="C6">
-        <v>12.28</v>
-      </c>
-      <c r="D6">
-        <v>3082</v>
-      </c>
-      <c r="E6">
-        <v>3082</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A7" s="1">
-        <v>44879.401736111111</v>
-      </c>
-      <c r="B7">
-        <v>550</v>
-      </c>
-      <c r="C7">
-        <v>12.27</v>
-      </c>
-      <c r="D7">
-        <v>3074</v>
-      </c>
-      <c r="E7">
-        <v>3074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A8" s="1">
-        <v>44879.402083333334</v>
-      </c>
-      <c r="B8">
-        <v>551</v>
-      </c>
-      <c r="C8">
-        <v>12.3</v>
-      </c>
-      <c r="D8">
-        <v>3057</v>
-      </c>
-      <c r="E8">
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A9" s="1">
-        <v>44879.402430555558</v>
-      </c>
-      <c r="B9">
-        <v>552</v>
-      </c>
-      <c r="C9">
-        <v>12.32</v>
-      </c>
-      <c r="D9">
-        <v>3006</v>
-      </c>
-      <c r="E9">
-        <v>3006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A10" s="1">
-        <v>44879.402777777781</v>
-      </c>
-      <c r="B10">
-        <v>553</v>
-      </c>
-      <c r="C10">
-        <v>12.32</v>
-      </c>
-      <c r="D10">
-        <v>2961</v>
-      </c>
-      <c r="E10">
-        <v>2961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A11" s="1">
-        <v>44879.403124999997</v>
-      </c>
-      <c r="B11">
-        <v>554</v>
-      </c>
-      <c r="C11">
-        <v>12.28</v>
-      </c>
-      <c r="D11">
-        <v>2937</v>
-      </c>
-      <c r="E11">
-        <v>2937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A12" s="1">
-        <v>44879.40347222222</v>
-      </c>
-      <c r="B12">
-        <v>555</v>
-      </c>
-      <c r="C12">
-        <v>12.26</v>
-      </c>
-      <c r="D12">
-        <v>2886</v>
-      </c>
-      <c r="E12">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A13" s="1">
-        <v>44879.403819444444</v>
-      </c>
-      <c r="B13">
-        <v>556</v>
-      </c>
-      <c r="C13">
-        <v>12.26</v>
-      </c>
-      <c r="D13">
-        <v>2850</v>
-      </c>
-      <c r="E13">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A14" s="1">
-        <v>44879.404166666667</v>
-      </c>
-      <c r="B14">
-        <v>557</v>
-      </c>
-      <c r="C14">
-        <v>12.29</v>
-      </c>
-      <c r="D14">
-        <v>2819</v>
-      </c>
-      <c r="E14">
-        <v>2819</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A15" s="1">
-        <v>44879.404513888891</v>
-      </c>
-      <c r="B15">
-        <v>558</v>
-      </c>
-      <c r="C15">
-        <v>12.31</v>
-      </c>
-      <c r="D15">
-        <v>2781</v>
-      </c>
-      <c r="E15">
-        <v>2781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A16" s="1">
-        <v>44879.404861111114</v>
-      </c>
-      <c r="B16">
-        <v>559</v>
-      </c>
-      <c r="C16">
-        <v>12.31</v>
-      </c>
-      <c r="D16">
-        <v>2745</v>
-      </c>
-      <c r="E16">
-        <v>2745</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A17" s="1">
-        <v>44879.40520833333</v>
-      </c>
-      <c r="B17">
-        <v>560</v>
-      </c>
-      <c r="C17">
-        <v>12.28</v>
-      </c>
-      <c r="D17">
-        <v>2720</v>
-      </c>
-      <c r="E17">
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A18" s="1">
-        <v>44879.405555555553</v>
-      </c>
-      <c r="B18">
-        <v>561</v>
-      </c>
-      <c r="C18">
-        <v>12.25</v>
-      </c>
-      <c r="D18">
-        <v>2671</v>
-      </c>
-      <c r="E18">
-        <v>2671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A19" s="1">
-        <v>44879.405902777777</v>
-      </c>
-      <c r="B19">
-        <v>562</v>
-      </c>
-      <c r="C19">
-        <v>12.26</v>
-      </c>
-      <c r="D19">
-        <v>2631</v>
-      </c>
-      <c r="E19">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A20" s="1">
-        <v>44879.40625</v>
-      </c>
-      <c r="B20">
-        <v>563</v>
-      </c>
-      <c r="C20">
-        <v>12.28</v>
-      </c>
-      <c r="D20">
-        <v>2604</v>
-      </c>
-      <c r="E20">
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A21" s="1">
-        <v>44879.406597222223</v>
-      </c>
-      <c r="B21">
-        <v>564</v>
-      </c>
-      <c r="C21">
-        <v>12.31</v>
-      </c>
-      <c r="D21">
-        <v>2594</v>
-      </c>
-      <c r="E21">
-        <v>2594</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A22" s="1">
-        <v>44879.406944444447</v>
-      </c>
-      <c r="B22">
-        <v>565</v>
-      </c>
-      <c r="C22">
-        <v>12.31</v>
-      </c>
-      <c r="D22">
-        <v>2541</v>
-      </c>
-      <c r="E22">
-        <v>2541</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A23" s="1">
-        <v>44879.40729166667</v>
-      </c>
-      <c r="B23">
-        <v>566</v>
-      </c>
-      <c r="C23">
-        <v>12.27</v>
-      </c>
-      <c r="D23">
-        <v>2455</v>
-      </c>
-      <c r="E23">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A24" s="1">
-        <v>44879.407638888886</v>
-      </c>
-      <c r="B24">
-        <v>567</v>
-      </c>
-      <c r="C24">
-        <v>12.26</v>
-      </c>
-      <c r="D24">
-        <v>2413</v>
-      </c>
-      <c r="E24">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A25" s="1">
-        <v>44879.407986111109</v>
-      </c>
-      <c r="B25">
-        <v>568</v>
-      </c>
-      <c r="C25">
-        <v>12.25</v>
-      </c>
-      <c r="D25">
-        <v>2387</v>
-      </c>
-      <c r="E25">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A26" s="1">
-        <v>44879.408333333333</v>
-      </c>
-      <c r="B26">
-        <v>569</v>
-      </c>
-      <c r="C26">
-        <v>12.3</v>
-      </c>
-      <c r="D26">
-        <v>2351</v>
-      </c>
-      <c r="E26">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A27" s="1">
-        <v>44879.408680555556</v>
-      </c>
-      <c r="B27">
-        <v>570</v>
-      </c>
-      <c r="C27">
-        <v>12.31</v>
-      </c>
-      <c r="D27">
-        <v>2322</v>
-      </c>
-      <c r="E27">
-        <v>2322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A28" s="1">
-        <v>44879.40902777778</v>
-      </c>
-      <c r="B28">
-        <v>571</v>
-      </c>
-      <c r="C28">
-        <v>12.28</v>
-      </c>
-      <c r="D28">
-        <v>2298</v>
-      </c>
-      <c r="E28">
-        <v>2298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A29" s="1">
-        <v>44879.409375000003</v>
-      </c>
-      <c r="B29">
-        <v>572</v>
-      </c>
-      <c r="C29">
-        <v>12.24</v>
-      </c>
-      <c r="D29">
-        <v>2288</v>
-      </c>
-      <c r="E29">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A30" s="1">
-        <v>44879.409722222219</v>
-      </c>
-      <c r="B30">
-        <v>573</v>
-      </c>
-      <c r="C30">
-        <v>12.24</v>
-      </c>
-      <c r="D30">
-        <v>2270</v>
-      </c>
-      <c r="E30">
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A31" s="1">
-        <v>44879.410069444442</v>
-      </c>
-      <c r="B31">
-        <v>574</v>
-      </c>
-      <c r="C31">
-        <v>12.3</v>
-      </c>
-      <c r="D31">
-        <v>2260</v>
-      </c>
-      <c r="E31">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A32" s="1">
-        <v>44879.410416666666</v>
-      </c>
-      <c r="B32">
-        <v>575</v>
-      </c>
-      <c r="C32">
-        <v>12.31</v>
-      </c>
-      <c r="D32">
-        <v>2237</v>
-      </c>
-      <c r="E32">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A33" s="1">
-        <v>44879.410763888889</v>
-      </c>
-      <c r="B33">
-        <v>576</v>
-      </c>
-      <c r="C33">
-        <v>12.45</v>
-      </c>
-      <c r="D33">
-        <v>7.4980000000000002</v>
-      </c>
-      <c r="E33">
-        <v>7.4980000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A34" s="1">
-        <v>44879.411111111112</v>
-      </c>
-      <c r="B34">
-        <v>577</v>
-      </c>
-      <c r="C34">
-        <v>12.45</v>
-      </c>
-      <c r="D34">
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="E34">
-        <v>2.0449999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A35" s="1">
-        <v>44879.411458333336</v>
-      </c>
-      <c r="B35">
-        <v>578</v>
-      </c>
-      <c r="C35">
-        <v>12.43</v>
-      </c>
-      <c r="D35">
-        <v>7.4980000000000002</v>
-      </c>
-      <c r="E35">
-        <v>7.4980000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A36" s="1">
-        <v>44879.411805555559</v>
-      </c>
-      <c r="B36">
-        <v>579</v>
-      </c>
-      <c r="C36">
-        <v>12.42</v>
-      </c>
-      <c r="D36">
-        <v>2114</v>
-      </c>
-      <c r="E36">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A37" s="1">
-        <v>44879.412152777775</v>
-      </c>
-      <c r="B37">
-        <v>580</v>
-      </c>
-      <c r="C37">
-        <v>12.41</v>
-      </c>
-      <c r="D37">
-        <v>2102</v>
-      </c>
-      <c r="E37">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A38" s="1">
-        <v>44879.412499999999</v>
-      </c>
-      <c r="B38">
-        <v>581</v>
-      </c>
-      <c r="C38">
-        <v>12.41</v>
-      </c>
-      <c r="D38">
-        <v>2080</v>
-      </c>
-      <c r="E38">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A39" s="1">
-        <v>44879.412847222222</v>
-      </c>
-      <c r="B39">
-        <v>582</v>
-      </c>
-      <c r="C39">
-        <v>12.4</v>
-      </c>
-      <c r="D39">
-        <v>2056</v>
-      </c>
-      <c r="E39">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A40" s="1">
-        <v>44879.413194444445</v>
-      </c>
-      <c r="B40">
-        <v>583</v>
-      </c>
-      <c r="C40">
-        <v>12.4</v>
-      </c>
-      <c r="D40">
-        <v>2273</v>
-      </c>
-      <c r="E40">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A41" s="1">
-        <v>44879.413541666669</v>
-      </c>
-      <c r="B41">
-        <v>584</v>
-      </c>
-      <c r="C41">
-        <v>12.4</v>
-      </c>
-      <c r="D41">
-        <v>2889</v>
-      </c>
-      <c r="E41">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A42" s="1">
-        <v>44879.413888888892</v>
-      </c>
-      <c r="B42">
-        <v>585</v>
-      </c>
-      <c r="C42">
-        <v>12.4</v>
-      </c>
-      <c r="D42">
-        <v>3331</v>
-      </c>
-      <c r="E42">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A43" s="1">
-        <v>44879.414236111108</v>
-      </c>
-      <c r="B43">
-        <v>586</v>
-      </c>
-      <c r="C43">
-        <v>12.4</v>
-      </c>
-      <c r="D43">
-        <v>3653</v>
-      </c>
-      <c r="E43">
-        <v>3653</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A44" s="1">
-        <v>44879.414583333331</v>
-      </c>
-      <c r="B44">
-        <v>587</v>
-      </c>
-      <c r="C44">
-        <v>12.4</v>
-      </c>
-      <c r="D44">
-        <v>3789</v>
-      </c>
-      <c r="E44">
-        <v>3789</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A45" s="1">
-        <v>44879.414930555555</v>
-      </c>
-      <c r="B45">
-        <v>588</v>
-      </c>
-      <c r="C45">
-        <v>12.4</v>
-      </c>
-      <c r="D45">
-        <v>3859</v>
-      </c>
-      <c r="E45">
-        <v>3859</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A46" s="1">
-        <v>44879.415277777778</v>
-      </c>
-      <c r="B46">
-        <v>589</v>
-      </c>
-      <c r="C46">
-        <v>12.4</v>
-      </c>
-      <c r="D46">
-        <v>3895</v>
-      </c>
-      <c r="E46">
-        <v>3895</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A47" s="1">
-        <v>44879.415625000001</v>
-      </c>
-      <c r="B47">
-        <v>590</v>
-      </c>
-      <c r="C47">
-        <v>12.4</v>
-      </c>
-      <c r="D47">
-        <v>3916</v>
-      </c>
-      <c r="E47">
-        <v>3916</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A48" s="1">
-        <v>44879.415972222225</v>
-      </c>
-      <c r="B48">
-        <v>591</v>
-      </c>
-      <c r="C48">
-        <v>12.4</v>
-      </c>
-      <c r="D48">
-        <v>3924</v>
-      </c>
-      <c r="E48">
-        <v>3924</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A49" s="1">
-        <v>44879.416319444441</v>
-      </c>
-      <c r="B49">
-        <v>592</v>
-      </c>
-      <c r="C49">
-        <v>12.4</v>
-      </c>
-      <c r="D49">
-        <v>3900</v>
-      </c>
-      <c r="E49">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A50" s="1">
-        <v>44879.416666666664</v>
-      </c>
-      <c r="B50">
-        <v>593</v>
-      </c>
-      <c r="C50">
-        <v>12.4</v>
-      </c>
-      <c r="D50">
-        <v>3837</v>
-      </c>
-      <c r="E50">
-        <v>3837</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A51" s="1">
-        <v>44879.417013888888</v>
-      </c>
-      <c r="B51">
-        <v>594</v>
-      </c>
-      <c r="C51">
-        <v>12.4</v>
-      </c>
-      <c r="D51">
-        <v>3776</v>
-      </c>
-      <c r="E51">
-        <v>3776</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A52" s="1">
-        <v>44879.417361111111</v>
-      </c>
-      <c r="B52">
-        <v>595</v>
-      </c>
-      <c r="C52">
-        <v>12.41</v>
-      </c>
-      <c r="D52">
-        <v>3713</v>
-      </c>
-      <c r="E52">
-        <v>3713</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A53" s="1">
-        <v>44879.417708333334</v>
-      </c>
-      <c r="B53">
-        <v>596</v>
-      </c>
-      <c r="C53">
-        <v>12.41</v>
-      </c>
-      <c r="D53">
-        <v>3656</v>
-      </c>
-      <c r="E53">
-        <v>3656</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A54" s="1">
-        <v>44879.418055555558</v>
-      </c>
-      <c r="B54">
-        <v>597</v>
-      </c>
-      <c r="C54">
-        <v>12.4</v>
-      </c>
-      <c r="D54">
-        <v>3591</v>
-      </c>
-      <c r="E54">
-        <v>3591</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A55" s="1">
-        <v>44879.418402777781</v>
-      </c>
-      <c r="B55">
-        <v>598</v>
-      </c>
-      <c r="C55">
-        <v>12.4</v>
-      </c>
-      <c r="D55">
-        <v>3554</v>
-      </c>
-      <c r="E55">
-        <v>3554</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A56" s="1">
-        <v>44879.418749999997</v>
-      </c>
-      <c r="B56">
-        <v>599</v>
-      </c>
-      <c r="C56">
-        <v>12.4</v>
-      </c>
-      <c r="D56">
-        <v>3488</v>
-      </c>
-      <c r="E56">
-        <v>3488</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A57" s="1">
-        <v>44879.41909722222</v>
-      </c>
-      <c r="B57">
-        <v>600</v>
-      </c>
-      <c r="C57">
-        <v>12.41</v>
-      </c>
-      <c r="D57">
-        <v>3441</v>
-      </c>
-      <c r="E57">
-        <v>3441</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A58" s="1">
-        <v>44879.419444444444</v>
-      </c>
-      <c r="B58">
-        <v>601</v>
-      </c>
-      <c r="C58">
-        <v>12.41</v>
-      </c>
-      <c r="D58">
-        <v>3396</v>
-      </c>
-      <c r="E58">
-        <v>3396</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A59" s="1">
-        <v>44879.419791666667</v>
-      </c>
-      <c r="B59">
-        <v>602</v>
-      </c>
-      <c r="C59">
-        <v>12.4</v>
-      </c>
-      <c r="D59">
-        <v>3365</v>
-      </c>
-      <c r="E59">
-        <v>3365</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A60" s="1">
-        <v>44879.420138888891</v>
-      </c>
-      <c r="B60">
-        <v>603</v>
-      </c>
-      <c r="C60">
-        <v>12.41</v>
-      </c>
-      <c r="D60">
-        <v>3327</v>
-      </c>
-      <c r="E60">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A61" s="1">
-        <v>44879.420486111114</v>
-      </c>
-      <c r="B61">
-        <v>604</v>
-      </c>
-      <c r="C61">
-        <v>12.42</v>
-      </c>
-      <c r="D61">
-        <v>3273</v>
-      </c>
-      <c r="E61">
-        <v>3273</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A62" s="1">
-        <v>44879.42083333333</v>
-      </c>
-      <c r="B62">
-        <v>605</v>
-      </c>
-      <c r="C62">
-        <v>12.42</v>
-      </c>
-      <c r="D62">
-        <v>3225</v>
-      </c>
-      <c r="E62">
-        <v>3225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A63" s="1">
-        <v>44879.421180555553</v>
-      </c>
-      <c r="B63">
-        <v>606</v>
-      </c>
-      <c r="C63">
-        <v>12.43</v>
-      </c>
-      <c r="D63">
-        <v>3169</v>
-      </c>
-      <c r="E63">
-        <v>3169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A64" s="1">
-        <v>44879.421527777777</v>
-      </c>
-      <c r="B64">
-        <v>607</v>
-      </c>
-      <c r="C64">
-        <v>12.43</v>
-      </c>
-      <c r="D64">
-        <v>3129</v>
-      </c>
-      <c r="E64">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A65" s="1">
-        <v>44879.421875</v>
-      </c>
-      <c r="B65">
-        <v>608</v>
-      </c>
-      <c r="C65">
-        <v>12.41</v>
-      </c>
-      <c r="D65">
-        <v>3079</v>
-      </c>
-      <c r="E65">
-        <v>3079</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A66" s="1">
-        <v>44879.422222222223</v>
-      </c>
-      <c r="B66">
-        <v>609</v>
-      </c>
-      <c r="C66">
-        <v>12.41</v>
-      </c>
-      <c r="D66">
-        <v>3028</v>
-      </c>
-      <c r="E66">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A67" s="1">
-        <v>44879.422569444447</v>
-      </c>
-      <c r="B67">
-        <v>610</v>
-      </c>
-      <c r="C67">
-        <v>12.4</v>
-      </c>
-      <c r="D67">
-        <v>2968</v>
-      </c>
-      <c r="E67">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A68" s="1">
-        <v>44879.42291666667</v>
-      </c>
-      <c r="B68">
-        <v>611</v>
-      </c>
-      <c r="C68">
-        <v>12.41</v>
-      </c>
-      <c r="D68">
-        <v>2923</v>
-      </c>
-      <c r="E68">
-        <v>2923</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A69" s="1">
-        <v>44879.423263888886</v>
-      </c>
-      <c r="B69">
-        <v>612</v>
-      </c>
-      <c r="C69">
-        <v>12.41</v>
-      </c>
-      <c r="D69">
-        <v>2892</v>
-      </c>
-      <c r="E69">
-        <v>2892</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A70" s="1">
-        <v>44879.423611111109</v>
-      </c>
-      <c r="B70">
-        <v>613</v>
-      </c>
-      <c r="C70">
-        <v>12.41</v>
-      </c>
-      <c r="D70">
-        <v>2874</v>
-      </c>
-      <c r="E70">
-        <v>2874</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A71" s="1">
-        <v>44879.423958333333</v>
-      </c>
-      <c r="B71">
-        <v>614</v>
-      </c>
-      <c r="C71">
-        <v>12.4</v>
-      </c>
-      <c r="D71">
-        <v>2837</v>
-      </c>
-      <c r="E71">
-        <v>2837</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A72" s="1">
-        <v>44879.424305555556</v>
-      </c>
-      <c r="B72">
-        <v>615</v>
-      </c>
-      <c r="C72">
-        <v>12.4</v>
-      </c>
-      <c r="D72">
-        <v>2795</v>
-      </c>
-      <c r="E72">
-        <v>2795</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A73" s="1">
-        <v>44879.42465277778</v>
-      </c>
-      <c r="B73">
-        <v>616</v>
-      </c>
-      <c r="C73">
-        <v>12.4</v>
-      </c>
-      <c r="D73">
-        <v>2725</v>
-      </c>
-      <c r="E73">
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A74" s="1">
-        <v>44879.425000000003</v>
-      </c>
-      <c r="B74">
-        <v>617</v>
-      </c>
-      <c r="C74">
-        <v>12.41</v>
-      </c>
-      <c r="D74">
-        <v>2669</v>
-      </c>
-      <c r="E74">
-        <v>2669</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A75" s="1">
-        <v>44879.425347222219</v>
-      </c>
-      <c r="B75">
-        <v>618</v>
-      </c>
-      <c r="C75">
-        <v>12.41</v>
-      </c>
-      <c r="D75">
-        <v>2597</v>
-      </c>
-      <c r="E75">
-        <v>2597</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A76" s="1">
-        <v>44879.425694444442</v>
-      </c>
-      <c r="B76">
-        <v>619</v>
-      </c>
-      <c r="C76">
-        <v>12.41</v>
-      </c>
-      <c r="D76">
-        <v>2545</v>
-      </c>
-      <c r="E76">
-        <v>2545</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59028D9-C411-4287-904D-6DFAEC8C4D76}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -5675,11 +3018,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89F07CC-EE83-4EFB-B61C-B43B82AB08E5}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
